--- a/pred_ohlcv/54_21/2020-01-15 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 DAC ohlcv.xlsx
@@ -17916,7 +17916,7 @@
         <v>-1026266.811</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-1068486.0202</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-1116009.8421</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-1116009.8421</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-1085867.7602</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-1228117.2938</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-1250971.251</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-1352612.1254</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-1375932.5164</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-1326189.2286</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-1355205.7192</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-1308501.0133</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-1359650.2928</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-1283965.6158</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-1283965.6158</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-1397473.0692</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-1312425.610300001</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-4377696.228899997</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-4359407.657899996</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-4301045.765299996</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-4301045.765299996</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 DAC ohlcv.xlsx
@@ -4578,7 +4578,7 @@
         <v>-1791114.5035</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1791114.5035</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1825392.1626</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1866262.852</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1866262.852</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1821546.3562</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1789164.4615</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1789164.4615</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1753600.4187</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1795677.8138</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1695509.6585</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1767451.6307</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1806857.5169</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1777959.083</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1742825.2776</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1704247.1039</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1721661.5756</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1685218.5515</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1705799.2039</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1595432.0742</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1595432.0742</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1642328.5861</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1642328.5861</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1602502.1562</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1596502.1562</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1596502.1562</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1596502.1562</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1596502.1562</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1646812.1995</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1585926.7238</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1585926.7238</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1578637.7238</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1578637.7238</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1603029.2962</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1564062.5546</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1602152.7637</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1582304.223</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1582304.223</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1622467.7492</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1573608.2416</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1573608.2416</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1573608.2416</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1573608.2416</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1549153.2988</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1549153.2988</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1554741.5888</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1548741.5888</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1548741.5888</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1548741.5888</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1548741.5888</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1548741.5888</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1786161.031</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1786161.031</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-1066957.0507</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-1116009.8421</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-1228117.2938</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-1250971.251</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-1352612.1254</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-1375932.5164</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-1326189.2286</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-1355205.7192</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-1308501.0133</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-1359650.2928</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-1321927.8161</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-1429202.240500001</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-1429202.240500001</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-1395296.7762</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-1443639.566300001</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-1503660.8229</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-1544269.7525</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-1503821.1922</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-1463986.3701</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-1463986.3701</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-1511174.7888</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-1457536.8561</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-1499429.7337</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-1533831.9297</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-1487751.733500001</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-1514002.8717</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-1579250.855100001</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-1536754.0329</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-1583126.9248</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-2762911.3428</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-2867281.6106</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-2908966.9736</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-2919089.6921</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-2919089.6921</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-2886925.8859</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-4109280.857</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-4109280.857</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-4377696.228899997</v>
       </c>
       <c r="H1138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-4359407.657899996</v>
       </c>
       <c r="H1144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-4301045.765299996</v>
       </c>
       <c r="H1145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-4301045.765299996</v>
       </c>
       <c r="H1146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-4338778.806999996</v>
       </c>
       <c r="H1147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
